--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A0229-53ED-477E-806C-D4982503FCE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D2626B-20D6-4F59-BFA7-02A1132BA82C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
   <si>
     <t>BaseLine</t>
   </si>
@@ -307,9 +307,6 @@
     <t>MSB defense</t>
   </si>
   <si>
-    <t>224-&gt;299</t>
-  </si>
-  <si>
     <t>random distort</t>
   </si>
   <si>
@@ -335,6 +332,15 @@
   </si>
   <si>
     <t>dropout pixels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non target </t>
+  </si>
+  <si>
+    <t>Randmize,  revise GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TBD</t>
   </si>
 </sst>
 </file>
@@ -1878,28 +1884,28 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365D85-EB91-403E-B758-0FD479EA1FC0}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B3:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,22 +1927,28 @@
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" t="s">
-        <v>100</v>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D2626B-20D6-4F59-BFA7-02A1132BA82C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A12CF-77C8-4BA0-A48B-053A1C97259E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
   <si>
     <t>BaseLine</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t xml:space="preserve"> TBD</t>
+  </si>
+  <si>
+    <t>GSMIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> without grad_smooth before embedded?  Which is not done in orignal pater</t>
   </si>
 </sst>
 </file>
@@ -1915,16 +1921,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365D85-EB91-403E-B758-0FD479EA1FC0}">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1951,6 +1957,14 @@
         <v>102</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A12CF-77C8-4BA0-A48B-053A1C97259E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD2384-9B3F-4A5A-819F-9183B8866841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="play" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Methods" sheetId="2" r:id="rId3"/>
     <sheet name="Inspire" sheetId="4" r:id="rId4"/>
     <sheet name="Todo" sheetId="5" r:id="rId5"/>
+    <sheet name="ParamsOpt" sheetId="6" r:id="rId6"/>
+    <sheet name="Submissions" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
   <si>
     <t>BaseLine</t>
   </si>
@@ -347,13 +349,88 @@
   </si>
   <si>
     <t xml:space="preserve"> without grad_smooth before embedded?  Which is not done in orignal pater</t>
+  </si>
+  <si>
+    <t>Mix params and modeks</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>ep_ratio</t>
+  </si>
+  <si>
+    <t>nb_iter</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>Model numbs</t>
+  </si>
+  <si>
+    <t>GS  Deep fool for targeted?</t>
+  </si>
+  <si>
+    <t>Ghost weight range</t>
+  </si>
+  <si>
+    <t>Ghost besides</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Methold</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Succ</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>resentv1_50</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>ghost_resnetv1_50</t>
+  </si>
+  <si>
+    <t>T1, T5(0.2), T3</t>
+  </si>
+  <si>
+    <t>Online Score</t>
+  </si>
+  <si>
+    <t>T5(0.1)</t>
+  </si>
+  <si>
+    <t>T1, T5(0.2)</t>
+  </si>
+  <si>
+    <t>t2.3.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +450,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF50A14F"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -404,12 +487,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -877,7 +966,7 @@
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365D85-EB91-403E-B758-0FD479EA1FC0}">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,7 +2054,263 @@
         <v>105</v>
       </c>
     </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E835AEF-9719-4338-817C-41DA5991264B}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00CBF3-8EFB-4429-9E3E-B0FBDA281CE5}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>123.0197</v>
+      </c>
+      <c r="J6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>126</v>
+      </c>
+      <c r="J7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8">
+        <v>0.15</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>126.18470000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD2384-9B3F-4A5A-819F-9183B8866841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932AC539-0A98-4DDA-97C9-AAB0C18E04C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="play" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
   <si>
     <t>BaseLine</t>
   </si>
@@ -351,9 +351,6 @@
     <t xml:space="preserve"> without grad_smooth before embedded?  Which is not done in orignal pater</t>
   </si>
   <si>
-    <t>Mix params and modeks</t>
-  </si>
-  <si>
     <t>Models</t>
   </si>
   <si>
@@ -424,6 +421,21 @@
   </si>
   <si>
     <t>t2.3.3</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Mix params and models</t>
+  </si>
+  <si>
+    <t>adv training on heavy model</t>
   </si>
 </sst>
 </file>
@@ -2010,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365D85-EB91-403E-B758-0FD479EA1FC0}">
-  <dimension ref="B3:C8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2034,18 @@
     <col min="3" max="3" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>97</v>
       </c>
@@ -2030,7 +2053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>98</v>
       </c>
@@ -2038,7 +2061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -2046,7 +2069,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -2054,14 +2077,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2085,12 +2113,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -2098,7 +2126,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2111,7 +2139,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -2119,12 +2147,12 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -2137,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00CBF3-8EFB-4429-9E3E-B0FBDA281CE5}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,19 +2186,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2178,42 +2206,42 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>117</v>
       </c>
-      <c r="J5" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2221,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>104</v>
@@ -2244,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -2268,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>104</v>
@@ -2283,30 +2311,33 @@
         <v>126.18470000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3.6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="b">
+      <c r="B9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
         <v>104</v>
       </c>
-      <c r="F10">
+      <c r="F9">
         <v>0.1</v>
       </c>
-      <c r="G10">
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="H9">
         <v>16</v>
+      </c>
+      <c r="K9">
+        <v>79.799099999999996</v>
       </c>
     </row>
   </sheetData>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932AC539-0A98-4DDA-97C9-AAB0C18E04C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8AC745-D1B9-4BDF-A545-A357E962E021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="play" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="144">
   <si>
     <t>BaseLine</t>
   </si>
@@ -436,6 +436,33 @@
   </si>
   <si>
     <t>adv training on heavy model</t>
+  </si>
+  <si>
+    <t>d2.3.5</t>
+  </si>
+  <si>
+    <t>d2.3.6</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>keras_xception_19</t>
+  </si>
+  <si>
+    <t>T1T2T3</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365D85-EB91-403E-B758-0FD479EA1FC0}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2165,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00CBF3-8EFB-4429-9E3E-B0FBDA281CE5}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,6 +2227,12 @@
       <c r="H1" t="s">
         <v>123</v>
       </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -2214,10 +2247,13 @@
       <c r="H2" t="s">
         <v>124</v>
       </c>
+      <c r="J2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -2245,8 +2281,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="b">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>127</v>
@@ -2268,8 +2304,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="b">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>114</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>128</v>
@@ -2292,8 +2328,8 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" t="b">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>114</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>128</v>
@@ -2318,8 +2354,8 @@
       <c r="B9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>114</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>125</v>
@@ -2338,6 +2374,46 @@
       </c>
       <c r="K9">
         <v>79.799099999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8AC745-D1B9-4BDF-A545-A357E962E021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BE78E-9A9B-459F-A029-37F7C79DE61C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="149">
   <si>
     <t>BaseLine</t>
   </si>
@@ -463,6 +463,21 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Offcial Model is very bad for prediction</t>
+  </si>
+  <si>
+    <t>Random defense</t>
+  </si>
+  <si>
+    <t>official model is bad,  try random defense on adv trained model</t>
+  </si>
+  <si>
+    <t>NonTarget</t>
+  </si>
+  <si>
+    <t>n2.3.7</t>
   </si>
 </sst>
 </file>
@@ -2049,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA365D85-EB91-403E-B758-0FD479EA1FC0}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,6 +2132,14 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2192,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00CBF3-8EFB-4429-9E3E-B0FBDA281CE5}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,9 +2232,10 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="9" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>118</v>
       </c>
@@ -2234,7 +2258,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2275,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>137</v>
       </c>
@@ -2280,7 +2304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>114</v>
       </c>
@@ -2303,7 +2327,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>114</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>114</v>
@@ -2347,7 +2371,7 @@
         <v>126.18470000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.6</v>
       </c>
@@ -2376,7 +2400,7 @@
         <v>79.799099999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.7</v>
       </c>
@@ -2396,7 +2420,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.8</v>
       </c>
@@ -2413,6 +2437,38 @@
         <v>143</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>2.65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12">
+        <v>0.08</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
         <v>16</v>
       </c>
     </row>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BE78E-9A9B-459F-A029-37F7C79DE61C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF031BE-E0A2-4802-9A55-005A69A9ADA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="ParamsOpt" sheetId="6" r:id="rId6"/>
     <sheet name="Submissions" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Submissions!$A$5:$L$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
   <si>
     <t>BaseLine</t>
   </si>
@@ -453,9 +456,6 @@
     <t>T6</t>
   </si>
   <si>
-    <t>T7</t>
-  </si>
-  <si>
     <t>keras_xception_19</t>
   </si>
   <si>
@@ -478,6 +478,24 @@
   </si>
   <si>
     <t>n2.3.7</t>
+  </si>
+  <si>
+    <t>Adv train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss and acc jump rapidly when shuffling,  </t>
+  </si>
+  <si>
+    <t>need small learning rate</t>
+  </si>
+  <si>
+    <t>Transfer train</t>
+  </si>
+  <si>
+    <t>adv trained</t>
+  </si>
+  <si>
+    <t>T11</t>
   </si>
 </sst>
 </file>
@@ -1980,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8256FD00-8941-42ED-8238-21974BCCED96}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,6 +2073,22 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2136,10 +2170,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
         <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2252,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,6 +2265,7 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="38.140625" customWidth="1"/>
   </cols>
@@ -2255,7 +2290,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2272,7 +2307,12 @@
         <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2411,7 +2451,7 @@
         <v>138</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H10">
         <v>16</v>
@@ -2431,10 +2471,10 @@
         <v>138</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
         <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
       </c>
       <c r="H11">
         <v>16</v>
@@ -2443,7 +2483,7 @@
         <v>2.65</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2451,10 +2491,10 @@
         <v>3.8</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>125</v>
@@ -2471,8 +2511,12 @@
       <c r="H12">
         <v>16</v>
       </c>
+      <c r="K12">
+        <v>49.81</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:L5" xr:uid="{4FDFD235-02C0-4226-93DA-D0F7EBC75763}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF031BE-E0A2-4802-9A55-005A69A9ADA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13CF24-4B1B-46B7-B2C1-8DECB354AE99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
   <si>
     <t>BaseLine</t>
   </si>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>T11</t>
+  </si>
+  <si>
+    <t>T1,T2,T3</t>
+  </si>
+  <si>
+    <t>u2.3.2</t>
+  </si>
+  <si>
+    <t>T1, T5(0.2),</t>
+  </si>
+  <si>
+    <t>n2.3.8</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -571,6 +583,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2249,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00CBF3-8EFB-4429-9E3E-B0FBDA281CE5}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,13 +2429,13 @@
         <v>3.6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
         <v>104</v>
@@ -2431,59 +2444,62 @@
         <v>0.1</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>16</v>
       </c>
-      <c r="K9">
-        <v>79.799099999999996</v>
+      <c r="K9" s="3">
+        <v>40.238700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
+        <v>3.6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>153</v>
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
       </c>
       <c r="H10">
         <v>16</v>
       </c>
       <c r="K10">
-        <v>14.1</v>
+        <v>79.799099999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H11">
         <v>16</v>
       </c>
-      <c r="K11">
-        <v>2.65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>143</v>
+      <c r="K11" s="3">
+        <v>14.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,28 +2507,106 @@
         <v>3.8</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12">
-        <v>0.08</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="H12">
         <v>16</v>
       </c>
       <c r="K12">
+        <v>2.65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13">
+        <v>0.08</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="K13">
         <v>49.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14">
+        <v>0.09</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>36.420699999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>43534</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>0.09</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>39.815899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/playground/summary.xlsx
+++ b/playground/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13CF24-4B1B-46B7-B2C1-8DECB354AE99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2EBE06-FF4E-428C-8BAF-05311F6C18D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
   <si>
     <t>BaseLine</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t>n2.3.8</t>
+  </si>
+  <si>
+    <t>d2.3.9</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>keras_nasnet_large</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C00CBF3-8EFB-4429-9E3E-B0FBDA281CE5}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,6 +2314,9 @@
       <c r="J1" t="s">
         <v>153</v>
       </c>
+      <c r="L1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -2321,6 +2333,9 @@
       </c>
       <c r="J2" t="s">
         <v>140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,6 +2623,30 @@
       <c r="K15">
         <v>39.815899999999999</v>
       </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <f>78/110</f>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="K16">
+        <v>14.2645</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{4FDFD235-02C0-4226-93DA-D0F7EBC75763}"/>
